--- a/public/app/sysbankmember/template/member.xlsx
+++ b/public/app/sysbankmember/template/member.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>店铺ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -385,7 +389,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,6 +398,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
